--- a/storage/csv_files/candidates_suggestion_01.xlsx
+++ b/storage/csv_files/candidates_suggestion_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>S.N.</t>
   </si>
@@ -44,9 +44,6 @@
     <t>WDYC</t>
   </si>
   <si>
-    <t>YC</t>
-  </si>
-  <si>
     <t>DYC</t>
   </si>
   <si>
@@ -66,6 +63,324 @@
   </si>
   <si>
     <t>Africa</t>
+  </si>
+  <si>
+    <t>Jitu Nepal</t>
+  </si>
+  <si>
+    <t>Sandip Chhetri</t>
+  </si>
+  <si>
+    <t>Manoj Gajurel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson  Bikram Rai </t>
+  </si>
+  <si>
+    <t>Kedar Ghimire</t>
+  </si>
+  <si>
+    <t>Shiva Pariyar</t>
+  </si>
+  <si>
+    <t>Tara devi</t>
+  </si>
+  <si>
+    <t>Rita Thapa Magar</t>
+  </si>
+  <si>
+    <t>Nabin K Bhattarai</t>
+  </si>
+  <si>
+    <t>Pasupati Sharma</t>
+  </si>
+  <si>
+    <t>Rajendra Baniya</t>
+  </si>
+  <si>
+    <t>Shiva Shrestha</t>
+  </si>
+  <si>
+    <t>Yankila Sherpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma Singh </t>
+  </si>
+  <si>
+    <t>Sweta Khadka</t>
+  </si>
+  <si>
+    <t>Swostima Khaka</t>
+  </si>
+  <si>
+    <t>Suman Kharel</t>
+  </si>
+  <si>
+    <t>Sharada Sharma</t>
+  </si>
+  <si>
+    <t>Rishi Dhamala</t>
+  </si>
+  <si>
+    <t>Ramesh Prasai</t>
+  </si>
+  <si>
+    <t>Rajesh Payal Rai</t>
+  </si>
+  <si>
+    <t>Rabi Lamichhane</t>
+  </si>
+  <si>
+    <t>Priyanka Karki</t>
+  </si>
+  <si>
+    <t>Phupu-Lhamu-Khatri</t>
+  </si>
+  <si>
+    <t>Nisha Adhikari</t>
+  </si>
+  <si>
+    <t>Nirmala Panta</t>
+  </si>
+  <si>
+    <t>Narayan Gopal</t>
+  </si>
+  <si>
+    <t>mithila_sharma</t>
+  </si>
+  <si>
+    <t>kunti_moktan</t>
+  </si>
+  <si>
+    <t>krishna_prasad_bhandari</t>
+  </si>
+  <si>
+    <t>karishma_manandhar</t>
+  </si>
+  <si>
+    <t>kali_prasad_baskota</t>
+  </si>
+  <si>
+    <t>ganga_maya_adhikari</t>
+  </si>
+  <si>
+    <t>gaurika_singh</t>
+  </si>
+  <si>
+    <t>daya_ram_rai</t>
+  </si>
+  <si>
+    <t>bidya_chapagai</t>
+  </si>
+  <si>
+    <t>bhuwan_kc</t>
+  </si>
+  <si>
+    <t>bhuwan_chanda</t>
+  </si>
+  <si>
+    <t>bharat_mani_poudel</t>
+  </si>
+  <si>
+    <t>bhakta_raj_acharya</t>
+  </si>
+  <si>
+    <t>anju_panta</t>
+  </si>
+  <si>
+    <t>anamol_kc</t>
+  </si>
+  <si>
+    <t>amit_dhakal</t>
+  </si>
+  <si>
+    <t>bishnu_majhi</t>
+  </si>
+  <si>
+    <t>babita_basnet</t>
+  </si>
+  <si>
+    <t>aruna_upreti</t>
+  </si>
+  <si>
+    <t>Anushka-Shrestha-miss-nepal-2019</t>
+  </si>
+  <si>
+    <t>Shrinkhala-Khatiwada</t>
+  </si>
+  <si>
+    <t>Krishna Darabasi</t>
+  </si>
+  <si>
+    <t>Buddhi Sagar</t>
+  </si>
+  <si>
+    <t>Nawaraj Parajuli</t>
+  </si>
+  <si>
+    <t>Subin Bhattarai</t>
+  </si>
+  <si>
+    <t>Amar Neupane</t>
+  </si>
+  <si>
+    <t>Saru Bhakta</t>
+  </si>
+  <si>
+    <t>Dhruba Chandra Gautam</t>
+  </si>
+  <si>
+    <t>Jagadish Ghimire</t>
+  </si>
+  <si>
+    <t>Avi Subedi</t>
+  </si>
+  <si>
+    <t>Khagendra Sangraula</t>
+  </si>
+  <si>
+    <t>Manjushri Thapa</t>
+  </si>
+  <si>
+    <t>Krishan Pahari</t>
+  </si>
+  <si>
+    <t>Upendra Devkota</t>
+  </si>
+  <si>
+    <t>Narayan Wagle</t>
+  </si>
+  <si>
+    <t>Kanak Mani Dikshit</t>
+  </si>
+  <si>
+    <t>Dil Bhusan Pathak</t>
+  </si>
+  <si>
+    <t>Bhusan Dahal</t>
+  </si>
+  <si>
+    <t>Indra Lohani</t>
+  </si>
+  <si>
+    <t>Bijaya Lama</t>
+  </si>
+  <si>
+    <t>Sunil Pokhrel</t>
+  </si>
+  <si>
+    <t>dipak_raj_giri</t>
+  </si>
+  <si>
+    <t>Yuba Raj Ghimire</t>
+  </si>
+  <si>
+    <t>Nirmala Sharma</t>
+  </si>
+  <si>
+    <t>Sapana Roka Magar</t>
+  </si>
+  <si>
+    <t>Dipashri Niraula</t>
+  </si>
+  <si>
+    <t>Rima Bishwokarma</t>
+  </si>
+  <si>
+    <t>Ramesh Kharel</t>
+  </si>
+  <si>
+    <t>Malwika Subba</t>
+  </si>
+  <si>
+    <t>Namrata Shrestha</t>
+  </si>
+  <si>
+    <t>Chari Maya Tamang</t>
+  </si>
+  <si>
+    <t>2021_32</t>
+  </si>
+  <si>
+    <t>2021_31</t>
+  </si>
+  <si>
+    <t>2021_33</t>
+  </si>
+  <si>
+    <t>2021_34</t>
+  </si>
+  <si>
+    <t>2021_35</t>
+  </si>
+  <si>
+    <t>2021_37</t>
+  </si>
+  <si>
+    <t>2021_38</t>
+  </si>
+  <si>
+    <t>2021_39</t>
+  </si>
+  <si>
+    <t>2031_40</t>
+  </si>
+  <si>
+    <t>2021_19</t>
+  </si>
+  <si>
+    <t>2021_20</t>
+  </si>
+  <si>
+    <t>2021_36</t>
+  </si>
+  <si>
+    <t>2021_21</t>
+  </si>
+  <si>
+    <t>2021_23</t>
+  </si>
+  <si>
+    <t>2021_24</t>
+  </si>
+  <si>
+    <t>Laxmi Prasad Devkota</t>
+  </si>
+  <si>
+    <t>Siddhi charan Shrestha</t>
+  </si>
+  <si>
+    <t>Motiram bhatta</t>
+  </si>
+  <si>
+    <t>Bhanu Bhakta Acharya</t>
+  </si>
+  <si>
+    <t>Bhupi sherchan</t>
+  </si>
+  <si>
+    <t>Madav Ghimire</t>
+  </si>
+  <si>
+    <t>YC  2021_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021_30</t>
   </si>
 </sst>
 </file>
@@ -82,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -314,6 +635,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -594,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +939,7 @@
     <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -633,24 +959,34 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="20"/>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -659,10 +995,18 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H3" s="21"/>
       <c r="I3" s="17"/>
     </row>
@@ -672,10 +1016,18 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H4" s="21"/>
       <c r="I4" s="17"/>
     </row>
@@ -685,9 +1037,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="21"/>
       <c r="I5" s="17"/>
@@ -698,9 +1054,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="21"/>
       <c r="I6" s="17"/>
@@ -711,14 +1071,16 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="2"/>
       <c r="H7" s="21"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -728,7 +1090,19 @@
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="18"/>
@@ -738,6 +1112,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="17"/>
     </row>
@@ -746,6 +1135,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="17"/>
     </row>
@@ -754,6 +1155,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="17"/>
     </row>
@@ -762,6 +1175,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="17"/>
     </row>
@@ -772,7 +1194,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>6</v>
       </c>
@@ -782,7 +1204,19 @@
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="18"/>
@@ -792,6 +1226,12 @@
         <v>1</v>
       </c>
       <c r="B17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="17"/>
     </row>
@@ -800,6 +1240,12 @@
         <v>2</v>
       </c>
       <c r="B18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="17"/>
     </row>
@@ -808,6 +1254,12 @@
         <v>3</v>
       </c>
       <c r="B19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="17"/>
     </row>
@@ -815,6 +1267,12 @@
       <c r="A20" s="11">
         <v>4</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="17"/>
     </row>
@@ -822,12 +1280,18 @@
       <c r="A21" s="11">
         <v>5</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" s="12"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="17"/>
@@ -835,7 +1299,19 @@
     <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="4">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="18"/>
@@ -845,6 +1321,18 @@
         <v>1</v>
       </c>
       <c r="B24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="17"/>
     </row>
@@ -853,6 +1341,15 @@
         <v>2</v>
       </c>
       <c r="B25" s="2"/>
+      <c r="D25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H25" s="12"/>
       <c r="I25" s="17"/>
     </row>
@@ -860,6 +1357,15 @@
       <c r="A26" s="11">
         <v>3</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="H26" s="12"/>
       <c r="I26" s="17"/>
     </row>
@@ -867,6 +1373,15 @@
       <c r="A27" s="11">
         <v>4</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="17"/>
     </row>
@@ -877,7 +1392,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>6</v>
       </c>
@@ -887,7 +1402,16 @@
     <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="18"/>
@@ -897,6 +1421,18 @@
         <v>1</v>
       </c>
       <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="H31" s="12"/>
       <c r="I31" s="17"/>
     </row>
@@ -904,6 +1440,18 @@
       <c r="A32" s="11">
         <v>2</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="H32" s="12"/>
       <c r="I32" s="17"/>
     </row>
@@ -911,6 +1459,12 @@
       <c r="A33" s="11">
         <v>3</v>
       </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="H33" s="12"/>
       <c r="I33" s="17"/>
     </row>
@@ -918,6 +1472,12 @@
       <c r="A34" s="11">
         <v>4</v>
       </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H34" s="12"/>
       <c r="I34" s="17"/>
     </row>
@@ -925,81 +1485,151 @@
       <c r="A35" s="11">
         <v>5</v>
       </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H35" s="12"/>
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>6</v>
+      <c r="A36" s="11"/>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>1</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="17"/>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="17"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
         <v>6</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/storage/csv_files/candidates_suggestion_01.xlsx
+++ b/storage/csv_files/candidates_suggestion_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
   <si>
     <t>S.N.</t>
   </si>
@@ -191,9 +191,6 @@
     <t>anamol_kc</t>
   </si>
   <si>
-    <t>amit_dhakal</t>
-  </si>
-  <si>
     <t>bishnu_majhi</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>Narayan Wagle</t>
   </si>
   <si>
-    <t>Kanak Mani Dikshit</t>
-  </si>
-  <si>
     <t>Dil Bhusan Pathak</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>Sunil Pokhrel</t>
   </si>
   <si>
-    <t>dipak_raj_giri</t>
-  </si>
-  <si>
     <t>Yuba Raj Ghimire</t>
   </si>
   <si>
@@ -323,9 +314,6 @@
     <t>2021_39</t>
   </si>
   <si>
-    <t>2031_40</t>
-  </si>
-  <si>
     <t>2021_19</t>
   </si>
   <si>
@@ -381,6 +369,105 @@
   </si>
   <si>
     <t xml:space="preserve"> 2021_30</t>
+  </si>
+  <si>
+    <t>2021_13</t>
+  </si>
+  <si>
+    <t>2021_14</t>
+  </si>
+  <si>
+    <t>2021_15</t>
+  </si>
+  <si>
+    <t>2021_16</t>
+  </si>
+  <si>
+    <t>2021_17</t>
+  </si>
+  <si>
+    <t>2021_18</t>
+  </si>
+  <si>
+    <t>2021_22</t>
+  </si>
+  <si>
+    <t>2021_40</t>
+  </si>
+  <si>
+    <t>2021_41</t>
+  </si>
+  <si>
+    <t>2021_42</t>
+  </si>
+  <si>
+    <t>2021_43</t>
+  </si>
+  <si>
+    <t>2021_44</t>
+  </si>
+  <si>
+    <t>2021_45</t>
+  </si>
+  <si>
+    <t>2021_46</t>
+  </si>
+  <si>
+    <t>2021_47</t>
+  </si>
+  <si>
+    <t>2021_48</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>national park</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>khana</t>
+  </si>
+  <si>
+    <t>Dipak_raj_giri</t>
+  </si>
+  <si>
+    <t>Khel</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Hills</t>
+  </si>
+  <si>
+    <t>sudheer_sharma.jpg</t>
+  </si>
+  <si>
+    <t>amit_dhakal.jpg</t>
+  </si>
+  <si>
+    <t>kishor_shrestha.jpg</t>
+  </si>
+  <si>
+    <t>yubaraj_ghimire.jpeg</t>
+  </si>
+  <si>
+    <t>Hari Devi Koirala</t>
+  </si>
+  <si>
+    <t>Bimal Gharti Magar</t>
+  </si>
+  <si>
+    <t>Kiran Chemjong</t>
+  </si>
+  <si>
+    <t>Deepak Bista</t>
+  </si>
+  <si>
+    <t>Sangina Baidya</t>
   </si>
 </sst>
 </file>
@@ -397,7 +484,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +500,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +706,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -639,7 +731,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -920,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +1027,7 @@
     <col min="4" max="4" width="35.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
@@ -959,59 +1052,63 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="18"/>
+        <v>109</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
@@ -1022,17 +1119,16 @@
       <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>45</v>
+      <c r="F4" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
@@ -1041,15 +1137,15 @@
         <v>15</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="17"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
@@ -1058,15 +1154,15 @@
         <v>16</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="17"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
@@ -1075,561 +1171,643 @@
         <v>17</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="17"/>
+      <c r="D8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="F11" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>3</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>35</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="17"/>
+        <v>145</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
+      <c r="F13" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="17"/>
+        <v>146</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="17"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="17"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="18"/>
+        <v>111</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>1</v>
       </c>
       <c r="B17" s="2"/>
+      <c r="C17" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="17"/>
+      <c r="H17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
       <c r="B18" s="2"/>
+      <c r="C18" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>3</v>
       </c>
       <c r="B19" s="2"/>
+      <c r="C19" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>4</v>
       </c>
+      <c r="C20" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>5</v>
       </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="17"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>6</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="4">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>1</v>
       </c>
       <c r="B24" s="2"/>
+      <c r="C24" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>2</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="D25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="C25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>3</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>4</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>85</v>
+      <c r="E27" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>5</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="17"/>
+      <c r="C28" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>6</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="17"/>
+      <c r="C29" s="23"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C30" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D30" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>2</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>3</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="D33" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>4</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>5</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="C36" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>6</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="D38"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>1</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
+      <c r="C40" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="H40" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>2</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="H41" s="11"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>3</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="C42" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <v>4</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="H43" s="11"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="C36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="H44" s="11"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
         <v>6</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
-        <v>6</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="B45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/storage/csv_files/candidates_suggestion_01.xlsx
+++ b/storage/csv_files/candidates_suggestion_01.xlsx
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1549,6 @@
       <c r="A29" s="10">
         <v>6</v>
       </c>
-      <c r="C29" s="23"/>
       <c r="H29" s="11"/>
       <c r="I29" s="16"/>
     </row>

--- a/storage/csv_files/candidates_suggestion_01.xlsx
+++ b/storage/csv_files/candidates_suggestion_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>S.N.</t>
   </si>
@@ -468,6 +468,33 @@
   </si>
   <si>
     <t>Sangina Baidya</t>
+  </si>
+  <si>
+    <t>Sompal Kami</t>
+  </si>
+  <si>
+    <t>Niru Thapa  (Women Football Captain)</t>
+  </si>
+  <si>
+    <t>Sambhujit Baskota</t>
+  </si>
+  <si>
+    <t>Ram Krishna Dhakal</t>
+  </si>
+  <si>
+    <t>Basundhara Bhusal</t>
+  </si>
+  <si>
+    <t>Sanchihta Luitel</t>
+  </si>
+  <si>
+    <t>Aruna Lama</t>
+  </si>
+  <si>
+    <t>Sunil Thapa</t>
+  </si>
+  <si>
+    <t>Santoshi Shrestha</t>
   </si>
 </sst>
 </file>
@@ -751,9 +778,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -791,7 +818,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -863,7 +890,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1015,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1054,7 @@
     <col min="4" max="4" width="35.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
@@ -1136,7 +1163,9 @@
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>64</v>
@@ -1228,7 +1257,9 @@
       <c r="F10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="H10" s="11" t="s">
         <v>137</v>
       </c>
@@ -1249,7 +1280,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="16"/>
@@ -1269,7 +1300,7 @@
         <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="16"/>
@@ -1279,12 +1310,6 @@
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="16"/>
     </row>
@@ -1346,7 +1371,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>136</v>
@@ -1367,6 +1392,9 @@
       <c r="E18" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="G18" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="16"/>
     </row>
@@ -1384,6 +1412,9 @@
       <c r="E19" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="G19" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="16"/>
     </row>
@@ -1399,6 +1430,9 @@
       </c>
       <c r="E20" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="16"/>
@@ -1513,6 +1547,9 @@
       <c r="F26" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="G26" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="16"/>
     </row>
@@ -1531,6 +1568,9 @@
       </c>
       <c r="F27" s="3" t="s">
         <v>86</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="16"/>
@@ -1650,6 +1690,9 @@
       <c r="D34" s="23" t="s">
         <v>140</v>
       </c>
+      <c r="G34" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H34" s="11"/>
       <c r="I34" s="16"/>
     </row>
@@ -1662,6 +1705,9 @@
       </c>
       <c r="D35" s="23" t="s">
         <v>141</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="16"/>
@@ -1751,7 +1797,7 @@
         <v>19</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>48</v>
@@ -1771,6 +1817,9 @@
       </c>
       <c r="D42" s="23" t="s">
         <v>21</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="16"/>
